--- a/memoria/lookahead/lookahead.xlsx
+++ b/memoria/lookahead/lookahead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\lookahead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A9C90-3477-45EB-86E6-7A3F90065AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2553B339-70A4-46AB-AB32-994171FF577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="28">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>%STDEV</t>
   </si>
 </sst>
 </file>
@@ -1598,11 +1604,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$2</c:f>
+              <c:f>Hoja1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>makespan</c:v>
+                  <c:v>valores_ideales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3373,7 +3379,7 @@
                   <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Tramo de agentes</a:t>
+                  <a:t>Tramo de lookahead</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-CL"/>
               </a:p>
@@ -4490,6 +4496,817 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> agentes en destino (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CR-MAPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$B$88:$B$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2674459559793099</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$B$88:$B$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2674459559793099</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$76:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB78-4F6C-BBD5-614487144843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$G$88:$G$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7437939337064359</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.7437939337064385</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.1004478389812569</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.0659541184451493</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$G$88:$G$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7437939337064359</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.7437939337064385</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.1004478389812569</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.0659541184451493</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$76:$J$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB78-4F6C-BBD5-614487144843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de lookahead</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>% de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
               <a:t>push_out vs total de movimientos (40 runs)</a:t>
             </a:r>
@@ -5257,7 +6074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6057,7 +6874,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6976,6 +7793,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10589,6 +11446,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11220,14 +12593,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>758638</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>758638</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -11645,141 +13018,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>365873</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>298638</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo 12">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637A6DF5-80A1-4238-B587-2113EFA1799B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5F0DF8-9BFA-494A-8051-19638EE64979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7642973" y="16848043"/>
-          <a:ext cx="1456765" cy="802341"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Aquí el promedio de agentes que llegarón</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>difieren poquisimo)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12201,10 +13472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13193,7 +14464,7 @@
         <v>14.026623037857446</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>4</v>
       </c>
@@ -13203,6 +14474,9 @@
       <c r="D75" t="s">
         <v>3</v>
       </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
       <c r="G75" t="s">
         <v>4</v>
       </c>
@@ -13212,8 +14486,11 @@
       <c r="I75" t="s">
         <v>3</v>
       </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -13226,6 +14503,10 @@
       <c r="D76">
         <v>0</v>
       </c>
+      <c r="E76">
+        <f>(B76/C76)*100</f>
+        <v>100</v>
+      </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
@@ -13238,8 +14519,12 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76">
+        <f>(G76/H76)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -13252,6 +14537,10 @@
       <c r="D77">
         <v>0</v>
       </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E85" si="0">(B77/C77)*100</f>
+        <v>100</v>
+      </c>
       <c r="F77" t="s">
         <v>18</v>
       </c>
@@ -13264,8 +14553,12 @@
       <c r="I77">
         <v>0</v>
       </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J85" si="1">(G77/H77)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -13278,6 +14571,10 @@
       <c r="D78">
         <v>0</v>
       </c>
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
@@ -13290,8 +14587,12 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -13304,6 +14605,10 @@
       <c r="D79">
         <v>0</v>
       </c>
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
@@ -13316,8 +14621,12 @@
       <c r="I79">
         <v>0</v>
       </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -13330,6 +14639,10 @@
       <c r="D80">
         <v>0.63245553203367555</v>
       </c>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>99.8</v>
+      </c>
       <c r="F80" t="s">
         <v>21</v>
       </c>
@@ -13342,8 +14655,12 @@
       <c r="I80">
         <v>2.8460498941515389</v>
       </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>99.1</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -13356,6 +14673,10 @@
       <c r="D81">
         <v>0</v>
       </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F81" t="s">
         <v>22</v>
       </c>
@@ -13368,8 +14689,12 @@
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -13382,6 +14707,10 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F82" t="s">
         <v>23</v>
       </c>
@@ -13394,8 +14723,12 @@
       <c r="I82">
         <v>2.8460498941515402</v>
       </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>99.1</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -13408,6 +14741,10 @@
       <c r="D83">
         <v>0</v>
       </c>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F83" t="s">
         <v>24</v>
       </c>
@@ -13420,8 +14757,12 @@
       <c r="I83">
         <v>2.5298221281347035</v>
       </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -13434,6 +14775,10 @@
       <c r="D84">
         <v>0</v>
       </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F84" t="s">
         <v>25</v>
       </c>
@@ -13446,8 +14791,12 @@
       <c r="I84">
         <v>3.0041637771599601</v>
       </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>99.05</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -13460,6 +14809,10 @@
       <c r="D85">
         <v>0</v>
       </c>
+      <c r="E85">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F85" t="s">
         <v>6</v>
       </c>
@@ -13470,6 +14823,118 @@
         <v>50</v>
       </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f>(D76/B76)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>(I76/G76)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" ref="B89:B97" si="2">(D77/B77)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89:G97" si="3">(I77/G77)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>1.2674459559793099</v>
+      </c>
+      <c r="G92">
+        <f>(I80/G80)*100</f>
+        <v>5.7437939337064359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>5.7437939337064385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>5.1004478389812569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>6.0659541184451493</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
